--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\脚本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7239813B-3E4B-4BF9-96DE-BB760CD5890C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="687"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user-23</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>iId</t>
   </si>
@@ -249,11 +255,43 @@
   <si>
     <t>untitled</t>
   </si>
+  <si>
+    <t>concrete_fence_display</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib16_display</t>
+  </si>
+  <si>
+    <t>oldslumhouse_display</t>
+  </si>
+  <si>
+    <t>oldtable_display</t>
+  </si>
+  <si>
+    <t>untitled_display</t>
+  </si>
+  <si>
+    <t>szDisplayAB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預覽物AB資源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szDisplayName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>預覽物名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -328,7 +366,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -440,12 +484,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="貨幣" xfId="2"/>
-    <cellStyle name="貨幣[0]" xfId="1"/>
-    <cellStyle name="一般 2" xfId="3"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="貨幣" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="貨幣[0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,36 +837,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="18" width="18.125" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="16" max="19" width="18.09765625" customWidth="1"/>
+    <col min="20" max="20" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,8 +918,14 @@
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="R1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="58.5" customHeight="1">
+    <row r="2" spans="1:19" ht="58.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -922,8 +977,14 @@
       <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="R2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="14.25">
+    <row r="3" spans="1:19" ht="16.2">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
@@ -971,8 +1032,14 @@
         <v>2</v>
       </c>
       <c r="Q3" s="7"/>
+      <c r="R3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25">
+    <row r="4" spans="1:19" ht="16.2">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
@@ -1020,8 +1087,14 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7"/>
+      <c r="R4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25">
+    <row r="5" spans="1:19" ht="16.2">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -1069,8 +1142,14 @@
         <v>2</v>
       </c>
       <c r="Q5" s="7"/>
+      <c r="R5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="14.25">
+    <row r="6" spans="1:19" ht="16.2">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -1106,8 +1185,14 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
+      <c r="R6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="14.25">
+    <row r="7" spans="1:19" ht="16.2">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -1126,8 +1211,14 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
+      <c r="R7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="14.25">
+    <row r="8" spans="1:19" ht="16.2">
       <c r="A8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1143,7 +1234,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.25">
+    <row r="9" spans="1:19" ht="16.2">
       <c r="A9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1159,7 +1250,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="14.25">
+    <row r="10" spans="1:19" ht="16.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1176,7 +1267,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="14.25">
+    <row r="11" spans="1:19" ht="16.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1193,15 +1284,15 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="14.25">
+    <row r="12" spans="1:19" ht="16.2">
       <c r="A12" s="11"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25">
+    <row r="13" spans="1:19" ht="16.2">
       <c r="A13" s="11"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>

--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\脚本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7239813B-3E4B-4BF9-96DE-BB760CD5890C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A1BFE-1F23-4BAC-95D9-BF55C1533AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>iId</t>
   </si>
@@ -256,36 +256,10 @@
     <t>untitled</t>
   </si>
   <si>
-    <t>concrete_fence_display</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib16_display</t>
-  </si>
-  <si>
-    <t>oldslumhouse_display</t>
-  </si>
-  <si>
-    <t>oldtable_display</t>
-  </si>
-  <si>
-    <t>untitled_display</t>
-  </si>
-  <si>
-    <t>szDisplayAB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>預覽物AB資源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>szDisplayName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>預覽物名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>預覽物大小</t>
+  </si>
+  <si>
+    <t>fDisplayScale</t>
   </si>
 </sst>
 </file>
@@ -293,8 +267,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -445,17 +419,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -484,7 +458,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -838,35 +811,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N18" sqref="N18"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="38.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="19" width="18.09765625" customWidth="1"/>
-    <col min="20" max="20" width="11.59765625" customWidth="1"/>
+    <col min="16" max="19" width="18.125" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,14 +891,11 @@
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="58.5" customHeight="1">
+      <c r="R1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="58.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -977,14 +947,11 @@
       <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="16.2">
+      <c r="R2" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
@@ -1032,14 +999,11 @@
         <v>2</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.2">
+      <c r="R3" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
@@ -1087,14 +1051,11 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.2">
+      <c r="R4" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -1142,14 +1103,11 @@
         <v>2</v>
       </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.2">
+      <c r="R5" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -1185,14 +1143,11 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.2">
+      <c r="R6" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -1211,14 +1166,11 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.2">
+      <c r="R7" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5">
       <c r="A8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1234,7 +1186,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:19" ht="16.2">
+    <row r="9" spans="1:18" ht="16.5">
       <c r="A9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1250,7 +1202,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:19" ht="16.2">
+    <row r="10" spans="1:18" ht="16.5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1267,7 +1219,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:19" ht="16.2">
+    <row r="11" spans="1:18" ht="16.5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1284,15 +1236,15 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:19" ht="16.2">
+    <row r="12" spans="1:18" ht="16.5">
       <c r="A12" s="11"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:19" ht="16.2">
+    <row r="13" spans="1:18" ht="16.5">
       <c r="A13" s="11"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>

--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\脚本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A1BFE-1F23-4BAC-95D9-BF55C1533AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC17C03-3F3C-4B31-8A9C-5F815AE0DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
   <si>
     <t>iId</t>
   </si>
@@ -241,18 +241,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>concrete_fence</t>
-  </si>
-  <si>
-    <t>ib16</t>
-  </si>
-  <si>
-    <t>oldslumhouse</t>
-  </si>
-  <si>
-    <t>oldtable</t>
-  </si>
-  <si>
     <t>untitled</t>
   </si>
   <si>
@@ -260,6 +248,313 @@
   </si>
   <si>
     <t>fDisplayScale</t>
+  </si>
+  <si>
+    <t>fire_extinguisher</t>
+  </si>
+  <si>
+    <t>Corner_Building</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner_building</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Station</t>
+  </si>
+  <si>
+    <t>fire_station</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>House_2</t>
+  </si>
+  <si>
+    <t>house_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albino</t>
+  </si>
+  <si>
+    <t>albino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>grey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPCharacter</t>
+  </si>
+  <si>
+    <t>hpcharacter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free_Racing_Car_Red</t>
+  </si>
+  <si>
+    <t>free_racing_car_red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlimePBR</t>
+  </si>
+  <si>
+    <t>slimepbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurtleShellPBR</t>
+  </si>
+  <si>
+    <t>turtleshellpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>House7</t>
+  </si>
+  <si>
+    <t>house7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>House8</t>
+  </si>
+  <si>
+    <t>house8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarSparrow1</t>
+  </si>
+  <si>
+    <t>starsparrow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarSparrow18</t>
+  </si>
+  <si>
+    <t>StarSparrow11</t>
+  </si>
+  <si>
+    <t>StarSparrow20</t>
+  </si>
+  <si>
+    <t>starsparrow18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarSparrow10</t>
+  </si>
+  <si>
+    <t>starsparrow10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flying_Insect</t>
+  </si>
+  <si>
+    <t>flying_insect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarSparrow9</t>
+  </si>
+  <si>
+    <t>starsparrow9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super_Spitfire</t>
+  </si>
+  <si>
+    <t>super_spitfire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chomper</t>
+  </si>
+  <si>
+    <t>chomper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>ellen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenadier</t>
+  </si>
+  <si>
+    <t>grenadier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankFree_Yel</t>
+  </si>
+  <si>
+    <t>tankfree_yel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VegetationLarge01</t>
+  </si>
+  <si>
+    <t>vegetationlarge01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VegetationLarge03_02</t>
+  </si>
+  <si>
+    <t>vegetationlarge03_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VegetationLarge05_02</t>
+  </si>
+  <si>
+    <t>vegetationlarge05_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VegetationLarge06</t>
+  </si>
+  <si>
+    <t>vegetationlarge06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VegetationMedium01</t>
+  </si>
+  <si>
+    <t>vegetationmedium01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>locker_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jerry_can_1</t>
+  </si>
+  <si>
+    <t>crate_2</t>
+  </si>
+  <si>
+    <t>crate_1</t>
+  </si>
+  <si>
+    <t>concrete_oval</t>
+  </si>
+  <si>
+    <t>containe_2</t>
+  </si>
+  <si>
+    <t>barrel_2</t>
+  </si>
+  <si>
+    <t>barrel_1</t>
+  </si>
+  <si>
+    <t>AK74</t>
+  </si>
+  <si>
+    <t>Uzi</t>
+  </si>
+  <si>
+    <t>ak74</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uzi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG7</t>
+  </si>
+  <si>
+    <t>rpg7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M249</t>
+  </si>
+  <si>
+    <t>m249</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4_8</t>
+  </si>
+  <si>
+    <t>m4_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabinet_2</t>
+  </si>
+  <si>
+    <t>corner_sofa</t>
+  </si>
+  <si>
+    <t>bed_2</t>
+  </si>
+  <si>
+    <t>ChestMonsterPBR</t>
+  </si>
+  <si>
+    <t>chestmonsterpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeholderPBR</t>
+  </si>
+  <si>
+    <t>beholderpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team5</t>
   </si>
 </sst>
 </file>
@@ -267,8 +562,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -419,17 +714,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -461,6 +756,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -811,32 +1109,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="19" width="18.125" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="16" max="19" width="18.09765625" customWidth="1"/>
+    <col min="20" max="20" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -892,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="58.5" customHeight="1">
@@ -948,21 +1246,21 @@
         <v>32</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="16.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.2">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>16</v>
@@ -1003,18 +1301,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5">
+    <row r="4" spans="1:18" ht="16.2">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
@@ -1055,18 +1353,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5">
+    <row r="5" spans="1:18" ht="16.2">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
@@ -1107,18 +1405,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5">
+    <row r="6" spans="1:18" ht="16.2">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>33</v>
@@ -1147,18 +1445,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5">
+    <row r="7" spans="1:18" ht="16.2">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -1170,12 +1468,23 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5">
-      <c r="A8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:18" ht="16.2">
+      <c r="A8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1185,13 +1494,27 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5">
-      <c r="A9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="R8" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.2">
+      <c r="A9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1201,14 +1524,27 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="R9" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.2">
+      <c r="A10" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1218,14 +1554,27 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="R10" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.2">
+      <c r="A11" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1235,19 +1584,855 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5">
-      <c r="A12" s="11"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="11"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="R11" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.2">
+      <c r="A12" s="4">
+        <v>1009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.2">
+      <c r="A13" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.2">
+      <c r="A14" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.2">
+      <c r="A15" s="4">
+        <v>1012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.2">
+      <c r="A16" s="4">
+        <v>1013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="R16" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16.2">
+      <c r="A17" s="4">
+        <v>1014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16.2">
+      <c r="A18" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16.2">
+      <c r="A19" s="4">
+        <v>1016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16.2">
+      <c r="A20" s="4">
+        <v>1017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="16.2">
+      <c r="A21" s="4">
+        <v>1018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="16.2">
+      <c r="A22" s="4">
+        <v>1019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16.2">
+      <c r="A23" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="16.2">
+      <c r="A24" s="4">
+        <v>1021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16.2">
+      <c r="A25" s="4">
+        <v>1022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16.2">
+      <c r="A26" s="4">
+        <v>1023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="16.2">
+      <c r="A27" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="16.2">
+      <c r="A28" s="4">
+        <v>1025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="16.2">
+      <c r="A29" s="4">
+        <v>1026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16.2">
+      <c r="A30" s="4">
+        <v>1027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16.2">
+      <c r="A31" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16.2">
+      <c r="A32" s="4">
+        <v>1029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16.2">
+      <c r="A33" s="4">
+        <v>1030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.2">
+      <c r="A34" s="4">
+        <v>1031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16.2">
+      <c r="A35" s="4">
+        <v>1032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="16.2">
+      <c r="A36" s="4">
+        <v>1033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+      <c r="R36" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16.2">
+      <c r="A37" s="4">
+        <v>1034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="R37" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16.2">
+      <c r="A38" s="4">
+        <v>1035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="R38" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="16.2">
+      <c r="A39" s="4">
+        <v>1036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="R39" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="16.2">
+      <c r="A40" s="4">
+        <v>1037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="R40" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="16.2">
+      <c r="A41" s="4">
+        <v>1038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="R41" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="16.2">
+      <c r="A42" s="4">
+        <v>1039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+      <c r="R42" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16.2">
+      <c r="A43" s="4">
+        <v>1040</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="R43" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16.2">
+      <c r="A44" s="4">
+        <v>1041</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
+      </c>
+      <c r="R44" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="16.2">
+      <c r="A45" s="4">
+        <v>1042</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+      <c r="R45" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16.2">
+      <c r="A46" s="4">
+        <v>1043</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="R46" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16.2">
+      <c r="A47" s="4">
+        <v>1044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" t="s">
+        <v>133</v>
+      </c>
+      <c r="R47" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="16.2">
+      <c r="A48" s="4">
+        <v>1045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+      <c r="R48" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16.2">
+      <c r="A49" s="4">
+        <v>1046</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="R49" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16.2">
+      <c r="A50" s="4">
+        <v>1047</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="R50" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16.2">
+      <c r="A51" s="4">
+        <v>1048</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="R51" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="16.2">
+      <c r="A52" s="4">
+        <v>1049</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>133</v>
+      </c>
+      <c r="R52" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="16.2">
+      <c r="A53" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>133</v>
+      </c>
+      <c r="R53" s="16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="16.2">
+      <c r="R54" s="16"/>
+    </row>
+    <row r="55" spans="1:18" ht="16.2">
+      <c r="R55" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\脚本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC17C03-3F3C-4B31-8A9C-5F815AE0DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3149B331-FD4D-456A-8AF4-93281F811115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <authors>
     <author>user-23</author>
     <author>Administrator</author>
+    <author>Tony</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -80,12 +81,110 @@
         </r>
       </text>
     </comment>
+    <comment ref="R2" authorId="2" shapeId="0" xr:uid="{7E171CD1-F179-43AF-A646-86E1BEF749D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Judy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+共用模式：共用原始物件的模型
+AB資源模式：使用新的AB資源</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="2" shapeId="0" xr:uid="{833FF8DE-450A-42DF-9887-413F0FB1C6AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Judy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+選用AB資源模式時，需填寫AB資源名稱。
+選共用模式時無須填寫。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="2" shapeId="0" xr:uid="{66F66B68-EE1F-427D-9654-53795D1A76C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Judy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+預覽物生成後的縮放大小，不填寫則使用原始大小</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="2" shapeId="0" xr:uid="{D5A32027-F31B-47A1-819B-545E8A365385}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Judy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+填寫動畫Clip名稱，可填複數，以；區分</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>iId</t>
   </si>
@@ -556,16 +655,36 @@
   <si>
     <t>Team5</t>
   </si>
+  <si>
+    <t>szDisplayAB</t>
+  </si>
+  <si>
+    <t>預覽物AB資源名稱</t>
+  </si>
+  <si>
+    <t>預覽物來源
+0或不填寫：共用模式
+1：AB資源模式</t>
+  </si>
+  <si>
+    <t>szAnimGroup</t>
+  </si>
+  <si>
+    <t>物件預覽動畫</t>
+  </si>
+  <si>
+    <t>iDisplayResource</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -633,6 +752,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -714,17 +846,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -759,6 +891,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1109,35 +1244,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R9" sqref="R9"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="38.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="19" width="18.09765625" customWidth="1"/>
-    <col min="20" max="20" width="11.59765625" customWidth="1"/>
+    <col min="16" max="21" width="18.125" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,10 +1325,19 @@
         <v>17</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="58.5" customHeight="1">
+      <c r="U1" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="58.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1246,10 +1390,19 @@
         <v>32</v>
       </c>
       <c r="R2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="16.2">
+      <c r="U2" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
@@ -1297,11 +1450,13 @@
         <v>2</v>
       </c>
       <c r="Q3" s="7"/>
-      <c r="R3" s="8">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.2">
+    <row r="4" spans="1:21" ht="16.5">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
@@ -1349,11 +1504,13 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7"/>
-      <c r="R4" s="8">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.2">
+    <row r="5" spans="1:21" ht="16.5">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -1401,11 +1558,13 @@
         <v>2</v>
       </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.2">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -1441,11 +1600,13 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="8">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.2">
+    <row r="7" spans="1:21" ht="16.5">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -1464,11 +1625,11 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.2">
+      <c r="T7" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -1494,11 +1655,11 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="R8" s="16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.2">
+      <c r="T8" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
@@ -1524,11 +1685,11 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="R9" s="16">
+      <c r="T9" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.2">
+    <row r="10" spans="1:21" ht="16.5">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
@@ -1554,11 +1715,11 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="R10" s="16">
+      <c r="T10" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.2">
+    <row r="11" spans="1:21" ht="16.5">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
@@ -1584,11 +1745,11 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="R11" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.2">
+      <c r="T11" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
@@ -1604,11 +1765,11 @@
       <c r="F12" t="s">
         <v>133</v>
       </c>
-      <c r="R12" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.2">
+      <c r="T12" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5">
       <c r="A13" s="4">
         <v>1010</v>
       </c>
@@ -1624,11 +1785,11 @@
       <c r="F13" t="s">
         <v>133</v>
       </c>
-      <c r="R13" s="16">
+      <c r="T13" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.2">
+    <row r="14" spans="1:21" ht="16.5">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
@@ -1644,11 +1805,11 @@
       <c r="F14" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="16">
+      <c r="T14" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.2">
+    <row r="15" spans="1:21" ht="16.5">
       <c r="A15" s="4">
         <v>1012</v>
       </c>
@@ -1664,11 +1825,11 @@
       <c r="F15" t="s">
         <v>133</v>
       </c>
-      <c r="R15" s="16">
+      <c r="T15" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.2">
+    <row r="16" spans="1:21" ht="16.5">
       <c r="A16" s="4">
         <v>1013</v>
       </c>
@@ -1684,11 +1845,11 @@
       <c r="F16" t="s">
         <v>133</v>
       </c>
-      <c r="R16" s="16">
+      <c r="T16" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16.2">
+    <row r="17" spans="1:20" ht="16.5">
       <c r="A17" s="4">
         <v>1014</v>
       </c>
@@ -1704,11 +1865,11 @@
       <c r="F17" t="s">
         <v>133</v>
       </c>
-      <c r="R17" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="16.2">
+      <c r="T17" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.5">
       <c r="A18" s="4">
         <v>1015</v>
       </c>
@@ -1724,11 +1885,11 @@
       <c r="F18" t="s">
         <v>133</v>
       </c>
-      <c r="R18" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="16.2">
+      <c r="T18" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16.5">
       <c r="A19" s="4">
         <v>1016</v>
       </c>
@@ -1744,11 +1905,11 @@
       <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="R19" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="16.2">
+      <c r="T19" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16.5">
       <c r="A20" s="4">
         <v>1017</v>
       </c>
@@ -1764,11 +1925,11 @@
       <c r="F20" t="s">
         <v>133</v>
       </c>
-      <c r="R20" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="16.2">
+      <c r="T20" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.5">
       <c r="A21" s="4">
         <v>1018</v>
       </c>
@@ -1784,11 +1945,11 @@
       <c r="F21" t="s">
         <v>133</v>
       </c>
-      <c r="R21" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="16.2">
+      <c r="T21" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="16.5">
       <c r="A22" s="4">
         <v>1019</v>
       </c>
@@ -1804,11 +1965,11 @@
       <c r="F22" t="s">
         <v>133</v>
       </c>
-      <c r="R22" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="16.2">
+      <c r="T22" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16.5">
       <c r="A23" s="4">
         <v>1020</v>
       </c>
@@ -1824,11 +1985,11 @@
       <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="R23" s="16">
+      <c r="T23" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.2">
+    <row r="24" spans="1:20" ht="16.5">
       <c r="A24" s="4">
         <v>1021</v>
       </c>
@@ -1844,11 +2005,11 @@
       <c r="F24" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="16">
+      <c r="T24" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16.2">
+    <row r="25" spans="1:20" ht="16.5">
       <c r="A25" s="4">
         <v>1022</v>
       </c>
@@ -1864,11 +2025,11 @@
       <c r="F25" t="s">
         <v>133</v>
       </c>
-      <c r="R25" s="16">
+      <c r="T25" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16.2">
+    <row r="26" spans="1:20" ht="16.5">
       <c r="A26" s="4">
         <v>1023</v>
       </c>
@@ -1884,11 +2045,11 @@
       <c r="F26" t="s">
         <v>133</v>
       </c>
-      <c r="R26" s="16">
+      <c r="T26" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.2">
+    <row r="27" spans="1:20" ht="16.5">
       <c r="A27" s="4">
         <v>1024</v>
       </c>
@@ -1904,11 +2065,11 @@
       <c r="F27" t="s">
         <v>133</v>
       </c>
-      <c r="R27" s="16">
+      <c r="T27" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16.2">
+    <row r="28" spans="1:20" ht="16.5">
       <c r="A28" s="4">
         <v>1025</v>
       </c>
@@ -1924,11 +2085,11 @@
       <c r="F28" t="s">
         <v>133</v>
       </c>
-      <c r="R28" s="16">
+      <c r="T28" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.2">
+    <row r="29" spans="1:20" ht="16.5">
       <c r="A29" s="4">
         <v>1026</v>
       </c>
@@ -1944,11 +2105,11 @@
       <c r="F29" t="s">
         <v>133</v>
       </c>
-      <c r="R29" s="16">
+      <c r="T29" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.2">
+    <row r="30" spans="1:20" ht="16.5">
       <c r="A30" s="4">
         <v>1027</v>
       </c>
@@ -1964,11 +2125,11 @@
       <c r="F30" t="s">
         <v>133</v>
       </c>
-      <c r="R30" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="16.2">
+      <c r="T30" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16.5">
       <c r="A31" s="4">
         <v>1028</v>
       </c>
@@ -1984,11 +2145,11 @@
       <c r="F31" t="s">
         <v>133</v>
       </c>
-      <c r="R31" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="16.2">
+      <c r="T31" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16.5">
       <c r="A32" s="4">
         <v>1029</v>
       </c>
@@ -2004,11 +2165,11 @@
       <c r="F32" t="s">
         <v>133</v>
       </c>
-      <c r="R32" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16.2">
+      <c r="T32" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="16.5">
       <c r="A33" s="4">
         <v>1030</v>
       </c>
@@ -2024,11 +2185,11 @@
       <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="R33" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="16.2">
+      <c r="T33" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="16.5">
       <c r="A34" s="4">
         <v>1031</v>
       </c>
@@ -2044,11 +2205,11 @@
       <c r="F34" t="s">
         <v>133</v>
       </c>
-      <c r="R34" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="16.2">
+      <c r="T34" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="16.5">
       <c r="A35" s="4">
         <v>1032</v>
       </c>
@@ -2064,11 +2225,11 @@
       <c r="F35" t="s">
         <v>133</v>
       </c>
-      <c r="R35" s="16">
+      <c r="T35" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.2">
+    <row r="36" spans="1:20" ht="16.5">
       <c r="A36" s="4">
         <v>1033</v>
       </c>
@@ -2084,11 +2245,11 @@
       <c r="F36" t="s">
         <v>133</v>
       </c>
-      <c r="R36" s="16">
+      <c r="T36" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16.2">
+    <row r="37" spans="1:20" ht="16.5">
       <c r="A37" s="4">
         <v>1034</v>
       </c>
@@ -2104,11 +2265,11 @@
       <c r="F37" t="s">
         <v>133</v>
       </c>
-      <c r="R37" s="16">
+      <c r="T37" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16.2">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="4">
         <v>1035</v>
       </c>
@@ -2124,11 +2285,11 @@
       <c r="F38" t="s">
         <v>133</v>
       </c>
-      <c r="R38" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="16.2">
+      <c r="T38" s="16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="4">
         <v>1036</v>
       </c>
@@ -2144,11 +2305,11 @@
       <c r="F39" t="s">
         <v>133</v>
       </c>
-      <c r="R39" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="16.2">
+      <c r="T39" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="4">
         <v>1037</v>
       </c>
@@ -2164,11 +2325,11 @@
       <c r="F40" t="s">
         <v>133</v>
       </c>
-      <c r="R40" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="16.2">
+      <c r="T40" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="4">
         <v>1038</v>
       </c>
@@ -2184,11 +2345,11 @@
       <c r="F41" t="s">
         <v>133</v>
       </c>
-      <c r="R41" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="16.2">
+      <c r="T41" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="4">
         <v>1039</v>
       </c>
@@ -2204,11 +2365,11 @@
       <c r="F42" t="s">
         <v>133</v>
       </c>
-      <c r="R42" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="16.2">
+      <c r="T42" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="4">
         <v>1040</v>
       </c>
@@ -2224,11 +2385,11 @@
       <c r="F43" t="s">
         <v>133</v>
       </c>
-      <c r="R43" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="16.2">
+      <c r="T43" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="4">
         <v>1041</v>
       </c>
@@ -2244,11 +2405,11 @@
       <c r="F44" t="s">
         <v>133</v>
       </c>
-      <c r="R44" s="16">
+      <c r="T44" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="16.2">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="4">
         <v>1042</v>
       </c>
@@ -2264,11 +2425,11 @@
       <c r="F45" t="s">
         <v>133</v>
       </c>
-      <c r="R45" s="16">
+      <c r="T45" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="16.2">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="4">
         <v>1043</v>
       </c>
@@ -2284,11 +2445,11 @@
       <c r="F46" t="s">
         <v>133</v>
       </c>
-      <c r="R46" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="16.2">
+      <c r="T46" s="16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="4">
         <v>1044</v>
       </c>
@@ -2304,11 +2465,11 @@
       <c r="F47" t="s">
         <v>133</v>
       </c>
-      <c r="R47" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="16.2">
+      <c r="T47" s="16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="4">
         <v>1045</v>
       </c>
@@ -2324,11 +2485,11 @@
       <c r="F48" t="s">
         <v>133</v>
       </c>
-      <c r="R48" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="16.2">
+      <c r="T48" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="16.5">
       <c r="A49" s="4">
         <v>1046</v>
       </c>
@@ -2344,11 +2505,11 @@
       <c r="F49" t="s">
         <v>133</v>
       </c>
-      <c r="R49" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="16.2">
+      <c r="T49" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="16.5">
       <c r="A50" s="4">
         <v>1047</v>
       </c>
@@ -2364,11 +2525,11 @@
       <c r="F50" t="s">
         <v>133</v>
       </c>
-      <c r="R50" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="16.2">
+      <c r="T50" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="16.5">
       <c r="A51" s="4">
         <v>1048</v>
       </c>
@@ -2384,11 +2545,11 @@
       <c r="F51" t="s">
         <v>133</v>
       </c>
-      <c r="R51" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="16.2">
+      <c r="T51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="16.5">
       <c r="A52" s="4">
         <v>1049</v>
       </c>
@@ -2404,11 +2565,11 @@
       <c r="F52" t="s">
         <v>133</v>
       </c>
-      <c r="R52" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="16.2">
+      <c r="T52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="16.5">
       <c r="A53" s="4">
         <v>1050</v>
       </c>
@@ -2424,15 +2585,15 @@
       <c r="F53" t="s">
         <v>133</v>
       </c>
-      <c r="R53" s="16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="16.2">
-      <c r="R54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" ht="16.2">
-      <c r="R55" s="16"/>
+      <c r="T53" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="16.5">
+      <c r="T54" s="16"/>
+    </row>
+    <row r="55" spans="1:20" ht="16.5">
+      <c r="T55" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3149B331-FD4D-456A-8AF4-93281F811115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED5726-6268-4CFA-885D-5590EF033918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -895,6 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1248,7 +1249,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1273,22 +1274,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1338,22 +1339,22 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="58.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">

--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DED5726-6268-4CFA-885D-5590EF033918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329E268-E774-4189-8A3B-37509A550329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,25 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Tony</author>
     <author>user-23</author>
-    <author>Administrator</author>
-    <author>Tony</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D96EEB3A-3206-41A6-8CCA-F039E0E07A58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>物件名稱</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,38 +63,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A8BE3EC4-5584-4588-A6C9-82E13A283024}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">当为道具物品时，此栏位为：道具增加的HP
-</t>
+          <t>物件Aseets.bundle
+(無須加.bundle)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{A4260F99-C471-45C7-869A-36854DB6E783}">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">当为道具物品时，此栏位为：道具获得新的道具
-</t>
+          <t>動畫機AB名;動畫機名字</t>
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="2" shapeId="0" xr:uid="{7E171CD1-F179-43AF-A646-86E1BEF749D7}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{7E171CD1-F179-43AF-A646-86E1BEF749D7}">
       <text>
         <r>
           <rPr>
@@ -106,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="2" shapeId="0" xr:uid="{833FF8DE-450A-42DF-9887-413F0FB1C6AE}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{833FF8DE-450A-42DF-9887-413F0FB1C6AE}">
       <text>
         <r>
           <rPr>
@@ -131,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="2" shapeId="0" xr:uid="{66F66B68-EE1F-427D-9654-53795D1A76C1}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{66F66B68-EE1F-427D-9654-53795D1A76C1}">
       <text>
         <r>
           <rPr>
@@ -155,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="2" shapeId="0" xr:uid="{D5A32027-F31B-47A1-819B-545E8A365385}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{D5A32027-F31B-47A1-819B-545E8A365385}">
       <text>
         <r>
           <rPr>
@@ -184,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>iId</t>
   </si>
@@ -313,25 +324,6 @@
     <t>ABObj</t>
   </si>
   <si>
-    <t>Team1</t>
-  </si>
-  <si>
-    <t>Team2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>szLogo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -651,9 +643,6 @@
   <si>
     <t>beholderpbr</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team5</t>
   </si>
   <si>
     <t>szDisplayAB</t>
@@ -674,6 +663,12 @@
   </si>
   <si>
     <t>iDisplayResource</t>
+  </si>
+  <si>
+    <t>ABTest</t>
+  </si>
+  <si>
+    <t>abtest</t>
   </si>
 </sst>
 </file>
@@ -684,7 +679,7 @@
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -737,21 +732,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1247,9 +1227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1290,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1307,10 +1287,10 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1322,20 +1302,20 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="58.5" customHeight="1">
@@ -1355,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>22</v>
@@ -1372,10 +1352,10 @@
       <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1387,20 +1367,20 @@
       <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5">
@@ -1408,20 +1388,18 @@
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="9">
         <v>500</v>
       </c>
@@ -1462,20 +1440,18 @@
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="9">
         <v>10</v>
       </c>
@@ -1516,20 +1492,18 @@
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="9">
         <v>10</v>
       </c>
@@ -1570,20 +1544,18 @@
         <v>1003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1612,19 +1584,16 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
       <c r="T7" s="8">
         <v>0.2</v>
@@ -1635,18 +1604,15 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1665,18 +1631,15 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" t="s">
-        <v>133</v>
-      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1695,18 +1658,15 @@
         <v>1007</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" t="s">
-        <v>133</v>
-      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1725,18 +1685,15 @@
         <v>1008</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" t="s">
-        <v>133</v>
-      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1755,16 +1712,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="T12" s="16">
         <v>0.05</v>
@@ -1775,16 +1729,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="T13" s="16">
         <v>0.1</v>
@@ -1795,16 +1746,13 @@
         <v>1011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="T14" s="16">
         <v>0.1</v>
@@ -1815,16 +1763,13 @@
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="T15" s="16">
         <v>0.1</v>
@@ -1835,16 +1780,13 @@
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="T16" s="16">
         <v>0.1</v>
@@ -1855,16 +1797,13 @@
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="T17" s="16">
         <v>0.5</v>
@@ -1875,16 +1814,13 @@
         <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="T18" s="16">
         <v>0.3</v>
@@ -1895,16 +1831,13 @@
         <v>1016</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="T19" s="16">
         <v>0.5</v>
@@ -1915,16 +1848,13 @@
         <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="T20" s="16">
         <v>0.5</v>
@@ -1935,16 +1865,13 @@
         <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="T21" s="16">
         <v>0.03</v>
@@ -1955,16 +1882,13 @@
         <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="T22" s="16">
         <v>0.03</v>
@@ -1975,16 +1899,13 @@
         <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="T23" s="16">
         <v>0.1</v>
@@ -1995,16 +1916,13 @@
         <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="T24" s="16">
         <v>0.1</v>
@@ -2015,16 +1933,13 @@
         <v>1022</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="T25" s="16">
         <v>0.1</v>
@@ -2035,16 +1950,13 @@
         <v>1023</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="T26" s="16">
         <v>0.1</v>
@@ -2055,16 +1967,13 @@
         <v>1024</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="T27" s="16">
         <v>0.1</v>
@@ -2075,16 +1984,13 @@
         <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="T28" s="16">
         <v>0.1</v>
@@ -2095,16 +2001,13 @@
         <v>1026</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="T29" s="16">
         <v>0.1</v>
@@ -2115,16 +2018,13 @@
         <v>1027</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="T30" s="16">
         <v>0.08</v>
@@ -2135,16 +2035,13 @@
         <v>1028</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="T31" s="16">
         <v>0.5</v>
@@ -2155,16 +2052,13 @@
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="T32" s="16">
         <v>0.5</v>
@@ -2175,16 +2069,13 @@
         <v>1030</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="T33" s="16">
         <v>0.3</v>
@@ -2195,16 +2086,13 @@
         <v>1031</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="T34" s="16">
         <v>0.3</v>
@@ -2215,16 +2103,13 @@
         <v>1032</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="T35" s="16">
         <v>0.1</v>
@@ -2235,16 +2120,13 @@
         <v>1033</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="T36" s="16">
         <v>0.1</v>
@@ -2255,16 +2137,13 @@
         <v>1034</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="T37" s="16">
         <v>0.1</v>
@@ -2275,16 +2154,13 @@
         <v>1035</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="T38" s="16">
         <v>0.08</v>
@@ -2295,16 +2171,13 @@
         <v>1036</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="T39" s="16">
         <v>0.3</v>
@@ -2315,16 +2188,13 @@
         <v>1037</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="T40" s="16">
         <v>0.6</v>
@@ -2335,16 +2205,13 @@
         <v>1038</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="T41" s="16">
         <v>0.3</v>
@@ -2355,16 +2222,13 @@
         <v>1039</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="T42" s="16">
         <v>0.6</v>
@@ -2375,16 +2239,13 @@
         <v>1040</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="T43" s="16">
         <v>0.6</v>
@@ -2395,16 +2256,13 @@
         <v>1041</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="T44" s="16">
         <v>0.1</v>
@@ -2415,16 +2273,13 @@
         <v>1042</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="T45" s="16">
         <v>0.1</v>
@@ -2435,16 +2290,13 @@
         <v>1043</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="T46" s="16">
         <v>0.7</v>
@@ -2455,16 +2307,13 @@
         <v>1044</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="T47" s="16">
         <v>0.7</v>
@@ -2475,16 +2324,13 @@
         <v>1045</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="T48" s="16">
         <v>1.2</v>
@@ -2495,16 +2341,13 @@
         <v>1046</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="T49" s="16">
         <v>1.5</v>
@@ -2515,16 +2358,13 @@
         <v>1047</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="T50" s="16">
         <v>1.2</v>
@@ -2535,16 +2375,13 @@
         <v>1048</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="T51" s="16">
         <v>1</v>
@@ -2555,16 +2392,13 @@
         <v>1049</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="T52" s="16">
         <v>1</v>
@@ -2575,23 +2409,34 @@
         <v>1050</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="T53" s="16">
         <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="16.5">
-      <c r="T54" s="16"/>
+      <c r="A54">
+        <v>1051</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="T54" s="16">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="16.5">
       <c r="T55" s="16"/>

--- a/脚本/Character.xlsx
+++ b/脚本/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329E268-E774-4189-8A3B-37509A550329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EC83D-3BB1-419C-8A5F-D5570ABE0ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>iId</t>
   </si>
@@ -348,108 +348,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>corner_building</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fire_Station</t>
   </si>
   <si>
-    <t>fire_station</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>House_2</t>
   </si>
   <si>
-    <t>house_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>school</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Albino</t>
   </si>
   <si>
-    <t>albino</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Grey</t>
   </si>
   <si>
-    <t>grey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
-    <t>red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
-    <t>blue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>HPCharacter</t>
   </si>
   <si>
-    <t>hpcharacter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Free_Racing_Car_Red</t>
   </si>
   <si>
-    <t>free_racing_car_red</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SlimePBR</t>
   </si>
   <si>
-    <t>slimepbr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TurtleShellPBR</t>
   </si>
   <si>
-    <t>turtleshellpbr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>House7</t>
   </si>
   <si>
-    <t>house7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>House8</t>
   </si>
   <si>
-    <t>house8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StarSparrow1</t>
   </si>
   <si>
-    <t>starsparrow1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StarSparrow18</t>
   </si>
   <si>
@@ -459,107 +399,43 @@
     <t>StarSparrow20</t>
   </si>
   <si>
-    <t>starsparrow18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>starsparrow11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>starsparrow20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StarSparrow10</t>
   </si>
   <si>
-    <t>starsparrow10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Flying_Insect</t>
   </si>
   <si>
-    <t>flying_insect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StarSparrow9</t>
   </si>
   <si>
-    <t>starsparrow9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Super_Spitfire</t>
   </si>
   <si>
-    <t>super_spitfire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Chomper</t>
   </si>
   <si>
-    <t>chomper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ellen</t>
   </si>
   <si>
-    <t>ellen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Grenadier</t>
   </si>
   <si>
-    <t>grenadier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TankFree_Yel</t>
   </si>
   <si>
-    <t>tankfree_yel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VegetationLarge01</t>
   </si>
   <si>
-    <t>vegetationlarge01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VegetationLarge03_02</t>
   </si>
   <si>
-    <t>vegetationlarge03_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VegetationLarge05_02</t>
   </si>
   <si>
-    <t>vegetationlarge05_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VegetationLarge06</t>
   </si>
   <si>
-    <t>vegetationlarge06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VegetationMedium01</t>
-  </si>
-  <si>
-    <t>vegetationmedium01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>locker_2</t>
@@ -593,35 +469,15 @@
     <t>Uzi</t>
   </si>
   <si>
-    <t>ak74</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uzi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RPG7</t>
   </si>
   <si>
-    <t>rpg7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>M249</t>
   </si>
   <si>
-    <t>m249</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>M4_8</t>
   </si>
   <si>
-    <t>m4_8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cabinet_2</t>
   </si>
   <si>
@@ -634,15 +490,7 @@
     <t>ChestMonsterPBR</t>
   </si>
   <si>
-    <t>chestmonsterpbr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BeholderPBR</t>
-  </si>
-  <si>
-    <t>beholderpbr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>szDisplayAB</t>
@@ -668,7 +516,7 @@
     <t>ABTest</t>
   </si>
   <si>
-    <t>abtest</t>
+    <t>mapobj</t>
   </si>
 </sst>
 </file>
@@ -836,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -876,6 +724,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1227,9 +1078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C54" sqref="C54"/>
+      <selection pane="topRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1306,16 +1157,16 @@
         <v>17</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>39</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="58.5" customHeight="1">
@@ -1371,16 +1222,16 @@
         <v>32</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5">
@@ -1388,13 +1239,13 @@
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>122</v>
+      <c r="D3" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>16</v>
@@ -1440,13 +1291,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>123</v>
+      <c r="D4" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
@@ -1492,13 +1343,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>125</v>
+      <c r="D5" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
@@ -1544,13 +1395,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>127</v>
+      <c r="D6" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>33</v>
@@ -1589,8 +1440,8 @@
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
+      <c r="D7" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -1609,8 +1460,8 @@
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
+      <c r="D8" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="12"/>
@@ -1636,8 +1487,8 @@
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
+      <c r="D9" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="12"/>
       <c r="G9" s="12"/>
@@ -1658,13 +1509,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
+      <c r="D10" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="12"/>
       <c r="G10" s="12"/>
@@ -1685,13 +1536,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>46</v>
+      <c r="D11" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="12"/>
       <c r="G11" s="12"/>
@@ -1712,13 +1563,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>48</v>
+      <c r="D12" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T12" s="16">
         <v>0.05</v>
@@ -1729,13 +1580,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
+      <c r="D13" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T13" s="16">
         <v>0.1</v>
@@ -1746,13 +1597,13 @@
         <v>1011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
+      <c r="D14" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T14" s="16">
         <v>0.1</v>
@@ -1763,13 +1614,13 @@
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
+      <c r="D15" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T15" s="16">
         <v>0.1</v>
@@ -1780,13 +1631,13 @@
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>56</v>
+      <c r="D16" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T16" s="16">
         <v>0.1</v>
@@ -1797,13 +1648,13 @@
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>58</v>
+      <c r="D17" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T17" s="16">
         <v>0.5</v>
@@ -1814,13 +1665,13 @@
         <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
+      <c r="D18" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T18" s="16">
         <v>0.3</v>
@@ -1831,13 +1682,13 @@
         <v>1016</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>62</v>
+      <c r="D19" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T19" s="16">
         <v>0.5</v>
@@ -1848,13 +1699,13 @@
         <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>64</v>
+      <c r="D20" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T20" s="16">
         <v>0.5</v>
@@ -1865,13 +1716,13 @@
         <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
+      <c r="D21" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T21" s="16">
         <v>0.03</v>
@@ -1882,13 +1733,13 @@
         <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>68</v>
+      <c r="D22" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T22" s="16">
         <v>0.03</v>
@@ -1899,13 +1750,13 @@
         <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>70</v>
+      <c r="D23" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T23" s="16">
         <v>0.1</v>
@@ -1916,13 +1767,13 @@
         <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>74</v>
+      <c r="D24" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T24" s="16">
         <v>0.1</v>
@@ -1933,13 +1784,13 @@
         <v>1022</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>75</v>
+      <c r="D25" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T25" s="16">
         <v>0.1</v>
@@ -1950,13 +1801,13 @@
         <v>1023</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>76</v>
+      <c r="D26" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T26" s="16">
         <v>0.1</v>
@@ -1967,13 +1818,13 @@
         <v>1024</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>78</v>
+      <c r="D27" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T27" s="16">
         <v>0.1</v>
@@ -1984,13 +1835,13 @@
         <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
+      <c r="D28" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T28" s="16">
         <v>0.1</v>
@@ -2001,13 +1852,13 @@
         <v>1026</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>82</v>
+      <c r="D29" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T29" s="16">
         <v>0.1</v>
@@ -2018,13 +1869,13 @@
         <v>1027</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>84</v>
+      <c r="D30" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T30" s="16">
         <v>0.08</v>
@@ -2035,13 +1886,13 @@
         <v>1028</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>86</v>
+      <c r="D31" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T31" s="16">
         <v>0.5</v>
@@ -2052,13 +1903,13 @@
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>88</v>
+      <c r="D32" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T32" s="16">
         <v>0.5</v>
@@ -2069,13 +1920,13 @@
         <v>1030</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>90</v>
+      <c r="D33" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T33" s="16">
         <v>0.3</v>
@@ -2086,13 +1937,13 @@
         <v>1031</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>92</v>
+      <c r="D34" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T34" s="16">
         <v>0.3</v>
@@ -2103,13 +1954,13 @@
         <v>1032</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
-        <v>94</v>
+      <c r="D35" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T35" s="16">
         <v>0.1</v>
@@ -2120,13 +1971,13 @@
         <v>1033</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>96</v>
+      <c r="D36" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T36" s="16">
         <v>0.1</v>
@@ -2137,13 +1988,13 @@
         <v>1034</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>98</v>
+      <c r="D37" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T37" s="16">
         <v>0.1</v>
@@ -2154,13 +2005,13 @@
         <v>1035</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>100</v>
+      <c r="D38" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T38" s="16">
         <v>0.08</v>
@@ -2171,13 +2022,13 @@
         <v>1036</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>102</v>
+      <c r="D39" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T39" s="16">
         <v>0.3</v>
@@ -2188,13 +2039,13 @@
         <v>1037</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>103</v>
+      <c r="D40" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T40" s="16">
         <v>0.6</v>
@@ -2205,13 +2056,13 @@
         <v>1038</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>104</v>
+      <c r="D41" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T41" s="16">
         <v>0.3</v>
@@ -2222,13 +2073,13 @@
         <v>1039</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>105</v>
+      <c r="D42" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T42" s="16">
         <v>0.6</v>
@@ -2239,13 +2090,13 @@
         <v>1040</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>106</v>
+      <c r="D43" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T43" s="16">
         <v>0.6</v>
@@ -2256,13 +2107,13 @@
         <v>1041</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>107</v>
+      <c r="D44" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T44" s="16">
         <v>0.1</v>
@@ -2273,13 +2124,13 @@
         <v>1042</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>108</v>
+      <c r="D45" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T45" s="16">
         <v>0.1</v>
@@ -2290,13 +2141,13 @@
         <v>1043</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>109</v>
+      <c r="D46" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T46" s="16">
         <v>0.7</v>
@@ -2307,13 +2158,13 @@
         <v>1044</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>110</v>
+      <c r="D47" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T47" s="16">
         <v>0.7</v>
@@ -2324,13 +2175,13 @@
         <v>1045</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>113</v>
+      <c r="D48" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T48" s="16">
         <v>1.2</v>
@@ -2341,13 +2192,13 @@
         <v>1046</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>114</v>
+      <c r="D49" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T49" s="16">
         <v>1.5</v>
@@ -2358,13 +2209,13 @@
         <v>1047</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
-        <v>116</v>
+      <c r="D50" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T50" s="16">
         <v>1.2</v>
@@ -2375,13 +2226,13 @@
         <v>1048</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>118</v>
+      <c r="D51" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T51" s="16">
         <v>1</v>
@@ -2392,13 +2243,13 @@
         <v>1049</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
-        <v>120</v>
+      <c r="D52" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T52" s="16">
         <v>1</v>
@@ -2409,13 +2260,13 @@
         <v>1050</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>121</v>
+      <c r="D53" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T53" s="16">
         <v>0.5</v>
@@ -2426,13 +2277,13 @@
         <v>1051</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>135</v>
+        <v>96</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="T54" s="16">
         <v>0.6</v>
